--- a/results/input_sweep_r17/h2000_M0.25_R1500km_PL350kg/ReqPowDATA.xlsx
+++ b/results/input_sweep_r17/h2000_M0.25_R1500km_PL350kg/ReqPowDATA.xlsx
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57.46563278356328</v>
+        <v>57.16278023105272</v>
       </c>
       <c r="F2" t="n">
-        <v>57.46563278356328</v>
+        <v>57.16278023105272</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>114.9312655671266</v>
+        <v>114.3255604621054</v>
       </c>
       <c r="F3" t="n">
-        <v>114.9312655671266</v>
+        <v>114.3255604621054</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1113.803142932418</v>
+        <v>1107.933227930618</v>
       </c>
       <c r="F4" t="n">
-        <v>837.174787016245</v>
+        <v>832.7627774009276</v>
       </c>
       <c r="G4" t="n">
-        <v>276.6283559161731</v>
+        <v>275.1704505296904</v>
       </c>
     </row>
     <row r="5">
@@ -561,13 +561,13 @@
         <v>5.047445992327883</v>
       </c>
       <c r="E5" t="n">
-        <v>1149.312655671265</v>
+        <v>1143.255604621054</v>
       </c>
       <c r="F5" t="n">
-        <v>863.8981132693244</v>
+        <v>859.3452731571793</v>
       </c>
       <c r="G5" t="n">
-        <v>285.414542401941</v>
+        <v>283.9103314638751</v>
       </c>
     </row>
     <row r="6">
@@ -586,10 +586,10 @@
         <v>282.5408700755719</v>
       </c>
       <c r="E6" t="n">
-        <v>456.5657015192265</v>
+        <v>454.1601778856844</v>
       </c>
       <c r="F6" t="n">
-        <v>456.5657015192265</v>
+        <v>454.1601778856844</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>456.5588755076361</v>
+        <v>363.3227097659877</v>
       </c>
       <c r="F7" t="n">
-        <v>456.5588755076361</v>
+        <v>363.3227097659877</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
